--- a/2012_indices.xlsx
+++ b/2012_indices.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia.sharepoint.com/teams/STUDENT_EMERGING_MARKETS_MEMOIRE_2023/Shared Documents/General/Memoire_M2_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{86383234-78D5-6F45-BFA6-631E441456B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D169538-B8F9-AC46-BC98-67F897F677EA}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{86383234-78D5-6F45-BFA6-631E441456B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8721C54-4AD7-2042-AD59-11E6B6B19C0B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolios" sheetId="1" r:id="rId1"/>
     <sheet name="extremes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">portfolios!$A$1:$E$1</definedName>
   </definedNames>
@@ -271,8 +268,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Simulation de 231 portefeuilles avec différentes répartitions dans les marchés CAC40, S&amp;P 500 et Hang Seng</a:t>
+              <a:t>Simulation de 231 portefeuilles avec différentes répartitions dans les marchés CAC40, S&amp;P 500 et Hang Seng sur la</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> période 2012 à 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -341,7 +343,7 @@
             <c:numRef>
               <c:f>portfolios!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0\.0%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>7.3179483158268943E-2</c:v>
@@ -492,7 +494,7 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Diversification à travers MSCI Emerging</c:v>
+            <c:v>Diversification à travers le marché émergent (Hang Seng)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -520,7 +522,7 @@
             <c:numRef>
               <c:f>portfolios!$A$23:$A$232</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0\.0%</c:formatCode>
                 <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>6.7150366693332728E-2</c:v>
@@ -1805,7 +1807,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Points critiques</c:v>
+            <c:v>Détails</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1837,7 +1839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FE7D4DF-8CA4-1B4F-881D-F6936F39AF7B}" type="CELLRANGE">
+                    <a:fld id="{7C526AC6-DAE5-9640-8A52-1636AE6551AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1870,7 +1872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C51F76B7-5643-B745-BACA-CFE1DF286A5E}" type="CELLRANGE">
+                    <a:fld id="{9A59AD1A-F17C-794A-9DB8-4621FA35D5FB}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1904,7 +1906,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D182278-BD40-A74C-9ED7-2A29EF872681}" type="CELLRANGE">
+                    <a:fld id="{8E40E648-84A1-E748-A776-22CDC2A02DDE}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2003,7 +2005,7 @@
                 <c:pt idx="1">
                   <c:v>7.3179483158268943E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0%">
+                <c:pt idx="2" formatCode="0\.0%">
                   <c:v>7.3327196799487668E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2035,14 +2037,10 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>CAC40 : 0%
-S&amp;P 500 : 100%
-Hang Seng : 0%</c:v>
+                    <c:v>S&amp;P 500 : 100%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>CAC40 : 100%
-S&amp;P 500 : 0%
-Hang Seng : 0%</c:v>
+                    <c:v>CAC40 : 100%</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>CAC40 : 50%
@@ -2139,7 +2137,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0\.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2971,1906 +2969,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="portfolios"/>
-      <sheetName val="extremes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>7.3179483158268943E-2</v>
-          </cell>
-          <cell r="B2">
-            <v>0.13518570675000241</v>
-          </cell>
-          <cell r="I2">
-            <v>7.5611672691233714E-2</v>
-          </cell>
-          <cell r="J2">
-            <v>0.12740444864640341</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>MSCI Emerging Markets : 15%
-CAC40 : 55%
-S&amp;P 500 : 30%</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>7.5213807586784129E-2</v>
-          </cell>
-          <cell r="B3">
-            <v>0.13450028264724731</v>
-          </cell>
-          <cell r="I3">
-            <v>7.3179483158268943E-2</v>
-          </cell>
-          <cell r="J3">
-            <v>0.13518570675000241</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>MSCI Emerging Markets : 0%
-CAC40 : 100%
-S&amp;P 500 : 0%</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>7.7248132015299328E-2</v>
-          </cell>
-          <cell r="B4">
-            <v>0.13398878026202271</v>
-          </cell>
-          <cell r="I4">
-            <v>0.1138659717285727</v>
-          </cell>
-          <cell r="J4">
-            <v>0.1536434873197598</v>
-          </cell>
-          <cell r="N4" t="str">
-            <v>MSCI Emerging Markets : 0%
-CAC40 : 0%
-S&amp;P 500 : 100%</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>7.92824564438145E-2</v>
-          </cell>
-          <cell r="B5">
-            <v>0.1336531964497788</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>8.1316780872329714E-2</v>
-          </cell>
-          <cell r="B6">
-            <v>0.13349485790698129</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>8.3351105300844872E-2</v>
-          </cell>
-          <cell r="B7">
-            <v>0.13351439523583389</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>8.5385429729360057E-2</v>
-          </cell>
-          <cell r="B8">
-            <v>0.1337117304652034</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8.7419754157875271E-2</v>
-          </cell>
-          <cell r="B9">
-            <v>0.13408607859890351</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8.9454078586390443E-2</v>
-          </cell>
-          <cell r="B10">
-            <v>0.13463596312013679</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9.1488403014905628E-2</v>
-          </cell>
-          <cell r="B11">
-            <v>0.135359244744368</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>9.3522727443420842E-2</v>
-          </cell>
-          <cell r="B12">
-            <v>0.1362531621338309</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>9.5557051871936013E-2</v>
-          </cell>
-          <cell r="B13">
-            <v>0.13731438280964481</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>9.7591376300451213E-2</v>
-          </cell>
-          <cell r="B14">
-            <v>0.1385390621541186</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>9.9625700728966357E-2</v>
-          </cell>
-          <cell r="B15">
-            <v>0.13992290820274991</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0.1016600251574816</v>
-          </cell>
-          <cell r="B16">
-            <v>0.14146124988317829</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0.1036943495859968</v>
-          </cell>
-          <cell r="B17">
-            <v>0.14314910645313239</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>0.1057286740145119</v>
-          </cell>
-          <cell r="B18">
-            <v>0.144981256096686</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>0.1077629984430271</v>
-          </cell>
-          <cell r="B19">
-            <v>0.14695230192698189</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>0.1097973228715423</v>
-          </cell>
-          <cell r="B20">
-            <v>0.1490567339811531</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>0.1118316473000575</v>
-          </cell>
-          <cell r="B21">
-            <v>0.1512889861485</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>0.1138659717285727</v>
-          </cell>
-          <cell r="B22">
-            <v>0.1536434873197598</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>6.6663645132851376E-2</v>
-          </cell>
-          <cell r="B23">
-            <v>0.12774167178780291</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>6.8697969561366548E-2</v>
-          </cell>
-          <cell r="B24">
-            <v>0.12746870813856001</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>7.0732293989881748E-2</v>
-          </cell>
-          <cell r="B25">
-            <v>0.1273818074887752</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>7.2766618418396919E-2</v>
-          </cell>
-          <cell r="B26">
-            <v>0.1274813503416275</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>7.4800942846912119E-2</v>
-          </cell>
-          <cell r="B27">
-            <v>0.1277669009249483</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>7.6835267275427305E-2</v>
-          </cell>
-          <cell r="B28">
-            <v>0.12823721667374779</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>7.886959170394249E-2</v>
-          </cell>
-          <cell r="B29">
-            <v>0.12889027500054959</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>8.090391613245769E-2</v>
-          </cell>
-          <cell r="B30">
-            <v>0.12972331602463849</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>8.2938240560972876E-2</v>
-          </cell>
-          <cell r="B31">
-            <v>0.13073289919665429</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>8.4972564989488061E-2</v>
-          </cell>
-          <cell r="B32">
-            <v>0.13191497119554049</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>8.7006889418003247E-2</v>
-          </cell>
-          <cell r="B33">
-            <v>0.1332649421262074</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>8.9041213846518447E-2</v>
-          </cell>
-          <cell r="B34">
-            <v>0.1347777669183827</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>9.1075538275033618E-2</v>
-          </cell>
-          <cell r="B35">
-            <v>0.1364480289060043</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>9.3109862703548804E-2</v>
-          </cell>
-          <cell r="B36">
-            <v>0.13827002281906611</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>9.5144187132063976E-2</v>
-          </cell>
-          <cell r="B37">
-            <v>0.1402378348009542</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>9.7178511560579175E-2</v>
-          </cell>
-          <cell r="B38">
-            <v>0.1423454175242666</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>9.9212835989094375E-2</v>
-          </cell>
-          <cell r="B39">
-            <v>0.144586658969212</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>0.1012471604176096</v>
-          </cell>
-          <cell r="B40">
-            <v>0.14695544391013229</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>0.1032814848461247</v>
-          </cell>
-          <cell r="B41">
-            <v>0.14944570759641199</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>8.0211029040931515E-3</v>
-          </cell>
-          <cell r="B42">
-            <v>0.17021476787892331</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>6.3405726120142558E-2</v>
-          </cell>
-          <cell r="B43">
-            <v>0.124866195963051</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>6.5440050548657772E-2</v>
-          </cell>
-          <cell r="B44">
-            <v>0.12481785448401631</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>6.7474374977172957E-2</v>
-          </cell>
-          <cell r="B45">
-            <v>0.1249597662566896</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>6.9508699405688143E-2</v>
-          </cell>
-          <cell r="B46">
-            <v>0.12529128480897339</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>7.1543023834203315E-2</v>
-          </cell>
-          <cell r="B47">
-            <v>0.12581091127745439</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>7.3577348262718514E-2</v>
-          </cell>
-          <cell r="B48">
-            <v>0.12651632789907821</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>7.5611672691233714E-2</v>
-          </cell>
-          <cell r="B49">
-            <v>0.12740444864640341</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>7.7645997119748886E-2</v>
-          </cell>
-          <cell r="B50">
-            <v>0.12847148448564141</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>7.9680321548264085E-2</v>
-          </cell>
-          <cell r="B51">
-            <v>0.12971302015687619</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>8.1714645976779271E-2</v>
-          </cell>
-          <cell r="B52">
-            <v>0.13112409905015671</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>8.3748970405294443E-2</v>
-          </cell>
-          <cell r="B53">
-            <v>0.13269931268260521</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>8.5783294833809642E-2</v>
-          </cell>
-          <cell r="B54">
-            <v>0.13443289144543361</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>8.7817619262324828E-2</v>
-          </cell>
-          <cell r="B55">
-            <v>0.13631879364030131</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>8.9851943690840014E-2</v>
-          </cell>
-          <cell r="B56">
-            <v>0.13835079030470959</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>9.1886268119355213E-2</v>
-          </cell>
-          <cell r="B57">
-            <v>0.14052254387660301</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>9.3920592547870371E-2</v>
-          </cell>
-          <cell r="B58">
-            <v>0.14282767931458271</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>9.5954916976385585E-2</v>
-          </cell>
-          <cell r="B59">
-            <v>0.1452598468278489</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>9.7989241404900784E-2</v>
-          </cell>
-          <cell r="B60">
-            <v>0.1478127758474698</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>6.0147807107433789E-2</v>
-          </cell>
-          <cell r="B61">
-            <v>0.12261063330302351</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>6.2182131535948967E-2</v>
-          </cell>
-          <cell r="B62">
-            <v>0.1227961333390345</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>6.4216455964464153E-2</v>
-          </cell>
-          <cell r="B63">
-            <v>0.12317438779344821</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>6.6250780392979366E-2</v>
-          </cell>
-          <cell r="B64">
-            <v>0.1237436290674675</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>6.8285104821494538E-2</v>
-          </cell>
-          <cell r="B65">
-            <v>0.12450123751395641</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>7.0319429250009724E-2</v>
-          </cell>
-          <cell r="B66">
-            <v>0.12544380029100519</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>7.235375367852491E-2</v>
-          </cell>
-          <cell r="B67">
-            <v>0.1265671853270664</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>7.4388078107040081E-2</v>
-          </cell>
-          <cell r="B68">
-            <v>0.12786662681484071</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>7.6422402535555309E-2</v>
-          </cell>
-          <cell r="B69">
-            <v>0.12933681836823921</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>7.8456726964070467E-2</v>
-          </cell>
-          <cell r="B70">
-            <v>0.1309720099847882</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>8.0491051392585652E-2</v>
-          </cell>
-          <cell r="B71">
-            <v>0.1327661052170899</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>8.2525375821100852E-2</v>
-          </cell>
-          <cell r="B72">
-            <v>0.13471275541239119</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>8.4559700249616038E-2</v>
-          </cell>
-          <cell r="B73">
-            <v>0.13680544845986739</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>8.6594024678131223E-2</v>
-          </cell>
-          <cell r="B74">
-            <v>0.1390375901223678</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>8.8628349106646395E-2</v>
-          </cell>
-          <cell r="B75">
-            <v>0.14140257666318901</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>9.0662673535161609E-2</v>
-          </cell>
-          <cell r="B76">
-            <v>0.14389385806269109</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>9.2696997963676794E-2</v>
-          </cell>
-          <cell r="B77">
-            <v>0.14650499162337841</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>5.6889888094724998E-2</v>
-          </cell>
-          <cell r="B78">
-            <v>0.1210096534380587</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>5.8924212523240198E-2</v>
-          </cell>
-          <cell r="B79">
-            <v>0.1214349712792321</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>6.0958536951755377E-2</v>
-          </cell>
-          <cell r="B80">
-            <v>0.1220536142652079</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>6.2992861380270548E-2</v>
-          </cell>
-          <cell r="B81">
-            <v>0.1228626621152081</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>6.5027185808785748E-2</v>
-          </cell>
-          <cell r="B82">
-            <v>0.12385838368917471</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>6.7061510237300934E-2</v>
-          </cell>
-          <cell r="B83">
-            <v>0.125036319361125</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>6.9095834665816119E-2</v>
-          </cell>
-          <cell r="B84">
-            <v>0.12639137466569081</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>7.1130159094331305E-2</v>
-          </cell>
-          <cell r="B85">
-            <v>0.12791792095563559</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>7.3164483522846505E-2</v>
-          </cell>
-          <cell r="B86">
-            <v>0.12960989890654501</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>7.5198807951361676E-2</v>
-          </cell>
-          <cell r="B87">
-            <v>0.13146092107063889</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>7.723313237987689E-2</v>
-          </cell>
-          <cell r="B88">
-            <v>0.13346437024217411</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>7.9267456808392062E-2</v>
-          </cell>
-          <cell r="B89">
-            <v>0.13561349107210111</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>8.1301781236907233E-2</v>
-          </cell>
-          <cell r="B90">
-            <v>0.1379014730835352</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>8.3336105665422461E-2</v>
-          </cell>
-          <cell r="B91">
-            <v>0.1403215239287206</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>8.5370430093937619E-2</v>
-          </cell>
-          <cell r="B92">
-            <v>0.14286693234605199</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>8.7404754522452832E-2</v>
-          </cell>
-          <cell r="B93">
-            <v>0.1455311207937591</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>5.3631969082016201E-2</v>
-          </cell>
-          <cell r="B94">
-            <v>0.1200894390567913</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>5.5666293510531401E-2</v>
-          </cell>
-          <cell r="B95">
-            <v>0.1207567077130835</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>5.7700617939046593E-2</v>
-          </cell>
-          <cell r="B96">
-            <v>0.1216158214364181</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>5.9734942367561779E-2</v>
-          </cell>
-          <cell r="B97">
-            <v>0.1226627493203612</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>6.1769266796076971E-2</v>
-          </cell>
-          <cell r="B98">
-            <v>0.12389273021137361</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>6.3803591224592143E-2</v>
-          </cell>
-          <cell r="B99">
-            <v>0.12530037353835</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>6.5837915653107329E-2</v>
-          </cell>
-          <cell r="B100">
-            <v>0.12687976631321191</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>6.7872240081622529E-2</v>
-          </cell>
-          <cell r="B101">
-            <v>0.12862458191093901</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>6.9906564510137714E-2</v>
-          </cell>
-          <cell r="B102">
-            <v>0.13052818670714711</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>7.19408889386529E-2</v>
-          </cell>
-          <cell r="B103">
-            <v>0.1325837413092994</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>7.3975213367168099E-2</v>
-          </cell>
-          <cell r="B104">
-            <v>0.13478429387473151</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>7.6009537795683271E-2</v>
-          </cell>
-          <cell r="B105">
-            <v>0.1371228637838057</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>7.8043862224198443E-2</v>
-          </cell>
-          <cell r="B106">
-            <v>0.1395925146648547</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>8.007818665271367E-2</v>
-          </cell>
-          <cell r="B107">
-            <v>0.14218641640419319</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>8.2112511081228842E-2</v>
-          </cell>
-          <cell r="B108">
-            <v>0.14489789629424901</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>5.0374050069307418E-2</v>
-          </cell>
-          <cell r="B109">
-            <v>0.1198656699906011</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>5.2408374497822603E-2</v>
-          </cell>
-          <cell r="B110">
-            <v>0.12077284871759621</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>5.4442698926337803E-2</v>
-          </cell>
-          <cell r="B111">
-            <v>0.12186837002952999</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>5.6477023354852988E-2</v>
-          </cell>
-          <cell r="B112">
-            <v>0.1231472075248517</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>5.8511347783368167E-2</v>
-          </cell>
-          <cell r="B113">
-            <v>0.1246037170790131</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>6.0545672211883367E-2</v>
-          </cell>
-          <cell r="B114">
-            <v>0.12623174870003179</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>6.2579996640398552E-2</v>
-          </cell>
-          <cell r="B115">
-            <v>0.12802475905485089</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>6.4614321068913724E-2</v>
-          </cell>
-          <cell r="B116">
-            <v>0.1299759207063394</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>6.6648645497428924E-2</v>
-          </cell>
-          <cell r="B117">
-            <v>0.13207822484078149</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>6.8682969925944123E-2</v>
-          </cell>
-          <cell r="B118">
-            <v>0.1343245750856738</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>7.0717294354459295E-2</v>
-          </cell>
-          <cell r="B119">
-            <v>0.13670787083421709</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>7.2751618782974481E-2</v>
-          </cell>
-          <cell r="B120">
-            <v>0.13922107924206939</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>7.478594321148968E-2</v>
-          </cell>
-          <cell r="B121">
-            <v>0.14185729570188321</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>7.6820267640004866E-2</v>
-          </cell>
-          <cell r="B122">
-            <v>0.14460979311097799</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>4.7116131056598641E-2</v>
-          </cell>
-          <cell r="B123">
-            <v>0.12034223129542559</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>4.9150455485113813E-2</v>
-          </cell>
-          <cell r="B124">
-            <v>0.1214831175043216</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>5.1184779913628992E-2</v>
-          </cell>
-          <cell r="B125">
-            <v>0.1228070011245259</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>5.3219104342144177E-2</v>
-          </cell>
-          <cell r="B126">
-            <v>0.1243080355128066</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>5.5253428770659377E-2</v>
-          </cell>
-          <cell r="B127">
-            <v>0.1259798886415226</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>5.7287753199174569E-2</v>
-          </cell>
-          <cell r="B128">
-            <v>0.12781585767200829</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>5.9322077627689748E-2</v>
-          </cell>
-          <cell r="B129">
-            <v>0.12980897921159049</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>6.1356402056204941E-2</v>
-          </cell>
-          <cell r="B130">
-            <v>0.1319521321415556</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>6.3390726484720133E-2</v>
-          </cell>
-          <cell r="B131">
-            <v>0.13423813076273591</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>6.5425050913235305E-2</v>
-          </cell>
-          <cell r="B132">
-            <v>0.13665980684117621</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>6.7459375341750505E-2</v>
-          </cell>
-          <cell r="B133">
-            <v>0.13921007988750381</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>6.9493699770265704E-2</v>
-          </cell>
-          <cell r="B134">
-            <v>0.14188201563244779</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>7.1528024198780876E-2</v>
-          </cell>
-          <cell r="B135">
-            <v>0.14466887315103591</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>4.3858212043889851E-2</v>
-          </cell>
-          <cell r="B136">
-            <v>0.1215108832392099</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>4.5892536472405043E-2</v>
-          </cell>
-          <cell r="B137">
-            <v>0.12287547766466431</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>4.7926860900920222E-2</v>
-          </cell>
-          <cell r="B138">
-            <v>0.1244161876858848</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>4.9961185329435387E-2</v>
-          </cell>
-          <cell r="B139">
-            <v>0.12612655940158921</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>5.1995509757950593E-2</v>
-          </cell>
-          <cell r="B140">
-            <v>0.12799979178068721</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>5.4029834186465793E-2</v>
-          </cell>
-          <cell r="B141">
-            <v>0.13002884636317949</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>5.6064158614980979E-2</v>
-          </cell>
-          <cell r="B142">
-            <v>0.132206548848394</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>5.8098483043496137E-2</v>
-          </cell>
-          <cell r="B143">
-            <v>0.13452568049071389</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>6.013280747201135E-2</v>
-          </cell>
-          <cell r="B144">
-            <v>0.13697905805560159</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>6.2167131900526522E-2</v>
-          </cell>
-          <cell r="B145">
-            <v>0.1395596018242152</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>6.4201456329041701E-2</v>
-          </cell>
-          <cell r="B146">
-            <v>0.14226039174025379</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>6.6235780757556914E-2</v>
-          </cell>
-          <cell r="B147">
-            <v>0.14507471225568869</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>6.9921564145560153E-2</v>
-          </cell>
-          <cell r="B148">
-            <v>0.1311963065392758</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>7.1955888574075352E-2</v>
-          </cell>
-          <cell r="B149">
-            <v>0.13071042281539311</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>7.3990213002590538E-2</v>
-          </cell>
-          <cell r="B150">
-            <v>0.1304050416848728</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>7.6024537431105724E-2</v>
-          </cell>
-          <cell r="B151">
-            <v>0.13028143245417359</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>7.8058861859620909E-2</v>
-          </cell>
-          <cell r="B152">
-            <v>0.13034011227942369</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>8.0093186288136109E-2</v>
-          </cell>
-          <cell r="B153">
-            <v>0.13058083541215959</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>8.2127510716651267E-2</v>
-          </cell>
-          <cell r="B154">
-            <v>0.13100259831807029</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>8.4161835145166453E-2</v>
-          </cell>
-          <cell r="B155">
-            <v>0.13160366042195479</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>8.6196159573681666E-2</v>
-          </cell>
-          <cell r="B156">
-            <v>0.13238157948918769</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>8.8230484002196852E-2</v>
-          </cell>
-          <cell r="B157">
-            <v>0.13333325999491061</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>9.0264808430712037E-2</v>
-          </cell>
-          <cell r="B158">
-            <v>0.13445501230862361</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>9.2299132859227209E-2</v>
-          </cell>
-          <cell r="B159">
-            <v>0.13574262016838051</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>9.4333457287742395E-2</v>
-          </cell>
-          <cell r="B160">
-            <v>0.1371914137497886</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>9.6367781716257608E-2</v>
-          </cell>
-          <cell r="B161">
-            <v>0.1387963456448964</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>9.8402106144772794E-2</v>
-          </cell>
-          <cell r="B162">
-            <v>0.14055206723244171</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>0.10043643057328799</v>
-          </cell>
-          <cell r="B163">
-            <v>0.14245300320973031</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>0.10247075500180319</v>
-          </cell>
-          <cell r="B164">
-            <v>0.1444934224276436</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>0.10450507943031841</v>
-          </cell>
-          <cell r="B165">
-            <v>0.14666750358364619</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>0.1065394038588335</v>
-          </cell>
-          <cell r="B166">
-            <v>0.14896939474700061</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>0.10857372828734869</v>
-          </cell>
-          <cell r="B167">
-            <v>0.15139326608650691</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>4.0600293031181039E-2</v>
-          </cell>
-          <cell r="B168">
-            <v>0.12335195652898751</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>4.2634617459696239E-2</v>
-          </cell>
-          <cell r="B169">
-            <v>0.1249271247792694</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>4.4668941888211432E-2</v>
-          </cell>
-          <cell r="B170">
-            <v>0.1266703766194941</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>4.670326631672661E-2</v>
-          </cell>
-          <cell r="B171">
-            <v>0.12857487546739901</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>4.8737590745241803E-2</v>
-          </cell>
-          <cell r="B172">
-            <v>0.1306335690824271</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>5.0771915173756982E-2</v>
-          </cell>
-          <cell r="B173">
-            <v>0.1328392886995137</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>5.2806239602272168E-2</v>
-          </cell>
-          <cell r="B174">
-            <v>0.13518483773854079</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>5.4840564030787353E-2</v>
-          </cell>
-          <cell r="B175">
-            <v>0.1376630690048056</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>5.687488845930256E-2</v>
-          </cell>
-          <cell r="B176">
-            <v>0.14026695000060241</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>5.8909212887817738E-2</v>
-          </cell>
-          <cell r="B177">
-            <v>0.1429896165403087</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>6.0943537316332931E-2</v>
-          </cell>
-          <cell r="B178">
-            <v>0.14582441529264209</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>3.7342374018472249E-2</v>
-          </cell>
-          <cell r="B179">
-            <v>0.1258359405536856</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>3.9376698446987442E-2</v>
-          </cell>
-          <cell r="B180">
-            <v>0.12760626286141311</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>4.1411022875502627E-2</v>
-          </cell>
-          <cell r="B181">
-            <v>0.12953589922915101</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>4.3445347304017827E-2</v>
-          </cell>
-          <cell r="B182">
-            <v>0.13161784277968119</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>4.5479671732533013E-2</v>
-          </cell>
-          <cell r="B183">
-            <v>0.13384498633894509</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>4.7513996161048178E-2</v>
-          </cell>
-          <cell r="B184">
-            <v>0.1362102076916091</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>4.9548320589563377E-2</v>
-          </cell>
-          <cell r="B185">
-            <v>0.1387064435126702</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>5.1582645018078577E-2</v>
-          </cell>
-          <cell r="B186">
-            <v>0.14132675169867601</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>5.3616969446593762E-2</v>
-          </cell>
-          <cell r="B187">
-            <v>0.14406436235477629</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>5.5651293875108941E-2</v>
-          </cell>
-          <cell r="B188">
-            <v>0.14691271809105139</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>3.4084455005763473E-2</v>
-          </cell>
-          <cell r="B189">
-            <v>0.12892568018853859</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>3.6118779434278651E-2</v>
-          </cell>
-          <cell r="B190">
-            <v>0.130874361350274</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>3.8153103862793851E-2</v>
-          </cell>
-          <cell r="B191">
-            <v>0.13297323936352839</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>4.018742829130903E-2</v>
-          </cell>
-          <cell r="B192">
-            <v>0.1352153201232825</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>4.2221752719824222E-2</v>
-          </cell>
-          <cell r="B193">
-            <v>0.13759360336322571</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>4.4256077148339408E-2</v>
-          </cell>
-          <cell r="B194">
-            <v>0.14010115295076969</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>4.6290401576854601E-2</v>
-          </cell>
-          <cell r="B195">
-            <v>0.1427311560627765</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>4.8324726005369772E-2</v>
-          </cell>
-          <cell r="B196">
-            <v>0.14547697152856101</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>5.0359050433884972E-2</v>
-          </cell>
-          <cell r="B197">
-            <v>0.1483321679894494</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>3.0826535993054668E-2</v>
-          </cell>
-          <cell r="B198">
-            <v>0.1325788309296364</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>3.2860860421569847E-2</v>
-          </cell>
-          <cell r="B199">
-            <v>0.13468855525906151</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>3.4895184850085061E-2</v>
-          </cell>
-          <cell r="B200">
-            <v>0.13693934389393289</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>3.6929509278600253E-2</v>
-          </cell>
-          <cell r="B201">
-            <v>0.1393243603095014</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>3.8963833707115432E-2</v>
-          </cell>
-          <cell r="B202">
-            <v>0.14183683346164391</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>4.0998158135630632E-2</v>
-          </cell>
-          <cell r="B203">
-            <v>0.14447011372053331</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>4.303248256414581E-2</v>
-          </cell>
-          <cell r="B204">
-            <v>0.14721771860630409</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>4.5066806992660982E-2</v>
-          </cell>
-          <cell r="B205">
-            <v>0.15007336894362511</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>2.7568616980345882E-2</v>
-          </cell>
-          <cell r="B206">
-            <v>0.13675024727877469</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>2.9602941408861081E-2</v>
-          </cell>
-          <cell r="B207">
-            <v>0.13900389814048239</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>3.1637265837376263E-2</v>
-          </cell>
-          <cell r="B208">
-            <v>0.1413897229183104</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>3.3671590265891442E-2</v>
-          </cell>
-          <cell r="B209">
-            <v>0.14390114758683109</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>3.5705914694406642E-2</v>
-          </cell>
-          <cell r="B210">
-            <v>0.14653171427346601</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>3.7740239122921827E-2</v>
-          </cell>
-          <cell r="B211">
-            <v>0.14927512445232741</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>3.977456355143702E-2</v>
-          </cell>
-          <cell r="B212">
-            <v>0.15212527322512301</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>2.4310697967637108E-2</v>
-          </cell>
-          <cell r="B213">
-            <v>0.14139406696353321</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>2.6345022396152291E-2</v>
-          </cell>
-          <cell r="B214">
-            <v>0.1437752718664482</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>2.8379346824667469E-2</v>
-          </cell>
-          <cell r="B215">
-            <v>0.1462801829000685</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>3.0413671253182652E-2</v>
-          </cell>
-          <cell r="B216">
-            <v>0.14890255706168129</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>3.2447995681697851E-2</v>
-          </cell>
-          <cell r="B217">
-            <v>0.15163630030754649</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>3.4482320110213037E-2</v>
-          </cell>
-          <cell r="B218">
-            <v>0.15447550007569799</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>2.1052778954928311E-2</v>
-          </cell>
-          <cell r="B219">
-            <v>0.1464653629214612</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>2.30871033834435E-2</v>
-          </cell>
-          <cell r="B220">
-            <v>0.14895886084364951</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>2.512142781195869E-2</v>
-          </cell>
-          <cell r="B221">
-            <v>0.15156813119248891</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>2.7155752240473872E-2</v>
-          </cell>
-          <cell r="B222">
-            <v>0.15428730033205171</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>2.919007666898905E-2</v>
-          </cell>
-          <cell r="B223">
-            <v>0.15711066219561709</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>1.7794859942219521E-2</v>
-          </cell>
-          <cell r="B224">
-            <v>0.15192133234173441</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>1.982918437073471E-2</v>
-          </cell>
-          <cell r="B225">
-            <v>0.15451318380303189</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>2.1863508799249899E-2</v>
-          </cell>
-          <cell r="B226">
-            <v>0.1572134637956773</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>2.3897833227765088E-2</v>
-          </cell>
-          <cell r="B227">
-            <v>0.16001668322254189</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>1.453694092951073E-2</v>
-          </cell>
-          <cell r="B228">
-            <v>0.15772206005123449</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>1.6571265358025909E-2</v>
-          </cell>
-          <cell r="B229">
-            <v>0.16039973203096841</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>1.8605589786541109E-2</v>
-          </cell>
-          <cell r="B230">
-            <v>0.1631790927957105</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>1.127902191680193E-2</v>
-          </cell>
-          <cell r="B231">
-            <v>0.16383092978637431</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>1.3313346345317121E-2</v>
-          </cell>
-          <cell r="B232">
-            <v>0.16658328974962811</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5158,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N232"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5212,7 +3310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>7.3179483158268943E-2</v>
       </c>
@@ -5244,10 +3342,8 @@
         <v>5</v>
       </c>
       <c r="N2" s="5" t="str">
-        <f>K$1&amp;" : "&amp;K2&amp;CHAR(10)&amp;L$1&amp;" : "&amp;L2&amp;CHAR(10)&amp;M$1&amp;" : "&amp;M2</f>
-        <v>CAC40 : 0%
-S&amp;P 500 : 100%
-Hang Seng : 0%</v>
+        <f>L$1&amp;" : "&amp;L2</f>
+        <v>S&amp;P 500 : 100%</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -5282,10 +3378,8 @@
         <v>5</v>
       </c>
       <c r="N3" s="5" t="str">
-        <f t="shared" ref="N3:N4" si="0">K$1&amp;" : "&amp;K3&amp;CHAR(10)&amp;L$1&amp;" : "&amp;L3&amp;CHAR(10)&amp;M$1&amp;" : "&amp;M3</f>
-        <v>CAC40 : 100%
-S&amp;P 500 : 0%
-Hang Seng : 0%</v>
+        <f>K$1&amp;" : "&amp;K3</f>
+        <v>CAC40 : 100%</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -5320,7 +3414,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N3:N4" si="0">K$1&amp;" : "&amp;K4&amp;CHAR(10)&amp;L$1&amp;" : "&amp;L4&amp;CHAR(10)&amp;M$1&amp;" : "&amp;M4</f>
         <v>CAC40 : 50%
 S&amp;P 500 : 30%
 Hang Seng : 40%</v>
@@ -9297,6 +7391,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e69700f-71ad-4d8d-94ed-9106ff4b281c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD713FF87E5B9F469D753B24FFFEE3C3" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c38a46b315577503d84d010574c1421d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e69700f-71ad-4d8d-94ed-9106ff4b281c" xmlns:ns3="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6eb623e45cee2c685d95ea31f364537d" ns2:_="" ns3:_="">
     <xsd:import namespace="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
@@ -9479,27 +7593,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AA0711-17DE-4CC6-93DB-DF487E0A57B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e69700f-71ad-4d8d-94ed-9106ff4b281c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF788D95-BD74-44B4-8891-287D9FDEEE4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8F6B536-EBBF-49A1-A6BB-17008ABE66B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9516,29 +7635,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF788D95-BD74-44B4-8891-287D9FDEEE4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AA0711-17DE-4CC6-93DB-DF487E0A57B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2012_indices.xlsx
+++ b/2012_indices.xlsx
@@ -343,7 +343,7 @@
             <c:numRef>
               <c:f>portfolios!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>0\.0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>7.3179483158268943E-2</c:v>
@@ -522,7 +522,7 @@
             <c:numRef>
               <c:f>portfolios!$A$23:$A$232</c:f>
               <c:numCache>
-                <c:formatCode>0\.0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>6.7150366693332728E-2</c:v>
@@ -1872,7 +1872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A59AD1A-F17C-794A-9DB8-4621FA35D5FB}" type="CELLRANGE">
+                    <a:fld id="{C6151B53-8661-CF4B-A0D8-DA12A302C65F}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1906,7 +1906,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E40E648-84A1-E748-A776-22CDC2A02DDE}" type="CELLRANGE">
+                    <a:fld id="{B9AABD0A-BFB4-4144-B5E0-37BC451046D9}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2005,7 +2005,7 @@
                 <c:pt idx="1">
                   <c:v>7.3179483158268943E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0\.0%">
+                <c:pt idx="2" formatCode="0.0%">
                   <c:v>7.3327196799487668E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2137,7 +2137,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0\.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2969,6 +2969,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3310,7 +3314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>7.3179483158268943E-2</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>S&amp;P 500 : 100%</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>7.5213807586784129E-2</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="5" t="str">
-        <f t="shared" ref="N3:N4" si="0">K$1&amp;" : "&amp;K4&amp;CHAR(10)&amp;L$1&amp;" : "&amp;L4&amp;CHAR(10)&amp;M$1&amp;" : "&amp;M4</f>
+        <f t="shared" ref="N4" si="0">K$1&amp;" : "&amp;K4&amp;CHAR(10)&amp;L$1&amp;" : "&amp;L4&amp;CHAR(10)&amp;M$1&amp;" : "&amp;M4</f>
         <v>CAC40 : 50%
 S&amp;P 500 : 30%
 Hang Seng : 40%</v>
@@ -7391,26 +7395,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e69700f-71ad-4d8d-94ed-9106ff4b281c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD713FF87E5B9F469D753B24FFFEE3C3" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c38a46b315577503d84d010574c1421d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e69700f-71ad-4d8d-94ed-9106ff4b281c" xmlns:ns3="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6eb623e45cee2c685d95ea31f364537d" ns2:_="" ns3:_="">
     <xsd:import namespace="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
@@ -7593,32 +7577,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AA0711-17DE-4CC6-93DB-DF487E0A57B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF788D95-BD74-44B4-8891-287D9FDEEE4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e69700f-71ad-4d8d-94ed-9106ff4b281c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8F6B536-EBBF-49A1-A6BB-17008ABE66B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7635,4 +7614,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF788D95-BD74-44B4-8891-287D9FDEEE4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AA0711-17DE-4CC6-93DB-DF487E0A57B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>